--- a/LOGS/29c1bb54-6aa7-4131-bfb2-0fb2b7de7b53/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/29c1bb54-6aa7-4131-bfb2-0fb2b7de7b53/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="157">
   <si>
     <t>line_item_0</t>
   </si>
@@ -195,6 +195,75 @@
     <t>Total $'000</t>
   </si>
   <si>
+    <t>Interest for the year</t>
+  </si>
+  <si>
+    <t>Payments during the year</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Non-current</t>
+  </si>
+  <si>
+    <t>as at 31 March 2023</t>
+  </si>
+  <si>
+    <t>Ac Additions</t>
+  </si>
+  <si>
+    <t>Current liabilities</t>
+  </si>
+  <si>
+    <t>Non- current liabilities</t>
+  </si>
+  <si>
+    <t>as at 31 March 2022</t>
+  </si>
+  <si>
+    <t>(146)</t>
+  </si>
+  <si>
+    <t>(620)</t>
+  </si>
+  <si>
+    <t>(29)</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>(496)</t>
+  </si>
+  <si>
+    <t>(1,070)</t>
+  </si>
+  <si>
+    <t>(262)</t>
+  </si>
+  <si>
+    <t>(808)</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>(314)</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>Consisting of:</t>
+  </si>
+  <si>
+    <t>Forest land</t>
+  </si>
+  <si>
     <t>2022 at 1 April 2022</t>
   </si>
   <si>
@@ -205,12 +274,6 @@
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Forest land</t>
   </si>
   <si>
     <t>Opening balance</t>
@@ -956,7 +1019,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C2">
         <v>-51247</v>
@@ -973,7 +1036,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C3">
         <v>12528</v>
@@ -990,7 +1053,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C4">
         <v>826</v>
@@ -1007,7 +1070,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C5">
         <v>-37893</v>
@@ -1024,7 +1087,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C6">
         <v>-56251</v>
@@ -1041,7 +1104,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C7">
         <v>7277</v>
@@ -1058,7 +1121,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C8">
         <v>-84</v>
@@ -1075,7 +1138,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C9">
         <v>-49058</v>
@@ -1125,13 +1188,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>38627</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1142,13 +1205,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C3">
         <v>166391</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1165,7 +1228,7 @@
         <v>205018</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1176,7 +1239,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <v>40384</v>
@@ -1193,7 +1256,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>223426</v>
@@ -1260,10 +1323,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>1628</v>
@@ -1280,10 +1343,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C3">
         <v>2003</v>
@@ -1300,10 +1363,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>6551</v>
@@ -1320,10 +1383,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>1730</v>
@@ -1340,10 +1403,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>1576</v>
@@ -1360,10 +1423,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C7">
         <v>5344</v>
@@ -1413,7 +1476,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1430,7 +1493,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1447,7 +1510,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>94</v>
@@ -1464,7 +1527,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>52</v>
@@ -1481,7 +1544,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>148</v>
@@ -1498,7 +1561,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1515,7 +1578,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>234</v>
@@ -1532,7 +1595,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>98</v>
@@ -1549,7 +1612,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C10">
         <v>27</v>
@@ -1566,7 +1629,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>363</v>
@@ -1616,10 +1679,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C2">
         <v>160</v>
@@ -1639,7 +1702,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C3">
         <v>160</v>
@@ -1656,10 +1719,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C4">
         <v>-8674</v>
@@ -1676,10 +1739,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <v>-1069</v>
@@ -1696,10 +1759,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C6">
         <v>-94</v>
@@ -1716,10 +1779,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C7">
         <v>-832</v>
@@ -1739,7 +1802,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C8">
         <v>-10669</v>
@@ -1756,10 +1819,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C9">
         <v>-1559</v>
@@ -1776,10 +1839,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C10">
         <v>-12068</v>
@@ -1796,10 +1859,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C11">
         <v>382</v>
@@ -1819,7 +1882,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C12">
         <v>382</v>
@@ -1836,10 +1899,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C13">
         <v>-3853</v>
@@ -1856,10 +1919,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C14">
         <v>-900</v>
@@ -1876,10 +1939,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <v>-41</v>
@@ -1896,10 +1959,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>-756</v>
@@ -1919,7 +1982,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C17">
         <v>-5550</v>
@@ -1936,10 +1999,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C18">
         <v>-345</v>
@@ -1956,10 +2019,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C19">
         <v>-5513</v>
@@ -2009,10 +2072,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C2">
         <v>11697</v>
@@ -2029,10 +2092,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C3">
         <v>11697</v>
@@ -2049,10 +2112,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C4">
         <v>-41931</v>
@@ -2069,10 +2132,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>11741</v>
@@ -2089,10 +2152,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C6">
         <v>-4</v>
@@ -2109,10 +2172,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C7">
         <v>-40</v>
@@ -2129,10 +2192,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C8">
         <v>11697</v>
@@ -2149,10 +2212,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C9">
         <v>-5479</v>
@@ -2169,10 +2232,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C10">
         <v>-5479</v>
@@ -2189,10 +2252,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C11">
         <v>19100</v>
@@ -2209,10 +2272,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C12">
         <v>-5348</v>
@@ -2229,10 +2292,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C13">
         <v>-97</v>
@@ -2249,10 +2312,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C14">
         <v>-34</v>
@@ -2269,10 +2332,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C15">
         <v>-5479</v>
@@ -5092,12 +5155,844 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>-27951</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>-1040</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>2414</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>-1181</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>-27758</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>-2331</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9">
+        <v>-25427</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>-27758</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <v>-19867</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <v>-9986</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14">
+        <v>-890</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15">
+        <v>2270</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16">
+        <v>522</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17">
+        <v>-27951</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>-2339</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19">
+        <v>-25612</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>-27951</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>-28097</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22">
+        <v>-620</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>-1069</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24">
+        <v>2635</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>-1677</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>-28828</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27">
+        <v>-2593</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28">
+        <v>-26235</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29">
+        <v>-28828</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <v>-20181</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32">
+        <v>-9986</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>-900</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34">
+        <v>2448</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35">
+        <v>522</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36">
+        <v>-28097</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37">
+        <v>-2485</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38">
+        <v>-25612</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39">
+        <v>-28097</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5129,16 +6024,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>2022</v>
@@ -5149,13 +6044,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>620</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -5166,13 +6061,13 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>-200</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -5183,13 +6078,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>495</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -5197,16 +6092,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>1050</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>2023</v>
@@ -5217,13 +6112,13 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -5234,13 +6129,13 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>2023</v>
@@ -5251,13 +6146,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>2023</v>
@@ -5268,13 +6163,13 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>-160</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>2023</v>
@@ -5285,13 +6180,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>2023</v>
@@ -5299,16 +6194,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>2022</v>
@@ -5316,16 +6211,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>28578</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E13">
         <v>2022</v>
@@ -5336,13 +6231,13 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <v>2023</v>
@@ -5353,13 +6248,13 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>-1803</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E15">
         <v>2023</v>
@@ -5370,13 +6265,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <v>1181</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E16">
         <v>2023</v>
@@ -5384,16 +6279,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C17">
         <v>27956</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E17">
         <v>2023</v>
@@ -5404,13 +6299,13 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E18">
         <v>2023</v>
@@ -5421,13 +6316,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C19">
         <v>20531</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <v>2023</v>
@@ -5438,13 +6333,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C20">
         <v>9986</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E20">
         <v>2023</v>
@@ -5455,13 +6350,13 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C21">
         <v>-1416</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E21">
         <v>2023</v>
@@ -5472,13 +6367,13 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>-523</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <v>2023</v>
@@ -5486,16 +6381,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>28578</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E23">
         <v>2022</v>
@@ -5503,10 +6398,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C24">
         <v>28713</v>
@@ -5523,7 +6418,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C25">
         <v>620</v>
@@ -5540,7 +6435,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>-2003</v>
@@ -5557,7 +6452,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5571,10 +6466,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>29006</v>
@@ -5591,7 +6486,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5608,7 +6503,7 @@
         <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C30">
         <v>20826</v>
@@ -5625,7 +6520,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>9986</v>
@@ -5642,7 +6537,7 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C32">
         <v>-1576</v>
@@ -5659,7 +6554,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C33">
         <v>-523</v>
@@ -5673,10 +6568,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C34">
         <v>28713</v>
@@ -5723,13 +6618,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>471595</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -5740,13 +6635,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -5757,13 +6652,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>-14313</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -5774,13 +6669,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>2440</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -5791,13 +6686,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>-21022</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -5808,13 +6703,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>440700</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -5825,13 +6720,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>338372</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -5842,13 +6737,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>124223</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -5859,13 +6754,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>-14032</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -5876,13 +6771,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>1780</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5893,13 +6788,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>21252</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -5910,13 +6805,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>471595</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -5960,7 +6855,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>137203</v>
@@ -5977,7 +6872,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>57731</v>
@@ -5994,7 +6889,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>194934</v>
@@ -6011,7 +6906,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>137203</v>
@@ -6028,7 +6923,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>91604</v>
@@ -6045,7 +6940,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>228807</v>
@@ -6095,13 +6990,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>10258</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -6112,13 +7007,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>5137</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -6129,13 +7024,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>15395</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -6146,7 +7041,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>7509</v>
@@ -6163,7 +7058,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>14011</v>
@@ -6180,7 +7075,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>21520</v>
@@ -6216,10 +7111,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -6236,25 +7131,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>28100</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H2">
         <v>2023</v>
@@ -6262,22 +7157,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H3">
         <v>2023</v>
@@ -6285,22 +7180,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F4">
         <v>28000</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H4">
         <v>2023</v>
@@ -6308,22 +7203,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H5">
         <v>2023</v>
@@ -6331,25 +7226,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>15000</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H6">
         <v>2023</v>
@@ -6360,13 +7255,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F7">
         <v>84100</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H7">
         <v>2023</v>
@@ -6374,22 +7269,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H8">
         <v>2023</v>
@@ -6397,22 +7292,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F9">
         <v>10000</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H9">
         <v>2023</v>
@@ -6420,22 +7315,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F10">
         <v>40000</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H10">
         <v>2023</v>
@@ -6443,25 +7338,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F11">
         <v>25000</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H11">
         <v>2023</v>
@@ -6469,22 +7364,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F12">
         <v>25000</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H12">
         <v>2023</v>
@@ -6492,22 +7387,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H13">
         <v>2023</v>
@@ -6515,22 +7410,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H14">
         <v>2023</v>
@@ -6538,22 +7433,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F15">
         <v>19000</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H15">
         <v>2023</v>
@@ -6561,22 +7456,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F16">
         <v>20000</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H16">
         <v>2023</v>
@@ -6584,22 +7479,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F17">
         <v>15000</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H17">
         <v>2023</v>
@@ -6607,25 +7502,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F18">
         <v>16000</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H18">
         <v>2023</v>
@@ -6633,25 +7528,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F19">
         <v>60750</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H19">
         <v>2022</v>
@@ -6659,22 +7554,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="B20" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F20">
         <v>11000</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H20">
         <v>2022</v>
@@ -6682,22 +7577,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H21">
         <v>2022</v>
@@ -6705,22 +7600,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F22">
         <v>2000</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H22">
         <v>2022</v>
@@ -6728,25 +7623,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H23">
         <v>2022</v>
@@ -6757,13 +7652,13 @@
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F24">
         <v>93750</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H24">
         <v>2022</v>
@@ -6771,22 +7666,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F25">
         <v>28000</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H25">
         <v>2022</v>
@@ -6794,22 +7689,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H26">
         <v>2022</v>
@@ -6817,22 +7712,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H27">
         <v>2022</v>
@@ -6840,25 +7735,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F28">
         <v>25000</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H28">
         <v>2022</v>
@@ -6866,22 +7761,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F29">
         <v>25000</v>
       </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H29">
         <v>2022</v>
@@ -6889,22 +7784,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F30">
         <v>15000</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H30">
         <v>2022</v>
@@ -6912,22 +7807,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F31">
         <v>13000</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H31">
         <v>2022</v>
@@ -6935,22 +7830,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F32">
         <v>19000</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H32">
         <v>2022</v>
@@ -6958,22 +7853,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F33">
         <v>20000</v>
       </c>
       <c r="G33" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H33">
         <v>2022</v>
@@ -6981,22 +7876,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H34">
         <v>2022</v>
@@ -7004,25 +7899,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H35">
         <v>2022</v>
